--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gdf2-Acvrl1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gdf2-Acvrl1.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H2">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.719386869492229</v>
+        <v>16.32975033333333</v>
       </c>
       <c r="N2">
-        <v>8.719386869492229</v>
+        <v>48.989251</v>
       </c>
       <c r="O2">
-        <v>0.2209978195917514</v>
+        <v>0.3418592381614251</v>
       </c>
       <c r="P2">
-        <v>0.2209978195917514</v>
+        <v>0.3418592381614251</v>
       </c>
       <c r="Q2">
-        <v>10.10749040723014</v>
+        <v>20.251813438643</v>
       </c>
       <c r="R2">
-        <v>10.10749040723014</v>
+        <v>182.266320947787</v>
       </c>
       <c r="S2">
-        <v>0.2209978195917514</v>
+        <v>0.3418592381614251</v>
       </c>
       <c r="T2">
-        <v>0.2209978195917514</v>
+        <v>0.3418592381614251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H3">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.4247429179386</v>
+        <v>26.81766766666667</v>
       </c>
       <c r="N3">
-        <v>26.4247429179386</v>
+        <v>80.453003</v>
       </c>
       <c r="O3">
-        <v>0.6697501390343844</v>
+        <v>0.5614211638667195</v>
       </c>
       <c r="P3">
-        <v>0.6697501390343844</v>
+        <v>0.5614211638667195</v>
       </c>
       <c r="Q3">
-        <v>30.63149273615621</v>
+        <v>33.258708269179</v>
       </c>
       <c r="R3">
-        <v>30.63149273615621</v>
+        <v>299.328374422611</v>
       </c>
       <c r="S3">
-        <v>0.6697501390343844</v>
+        <v>0.5614211638667195</v>
       </c>
       <c r="T3">
-        <v>0.6697501390343844</v>
+        <v>0.5614211638667195</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H4">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.31049870437749</v>
+        <v>4.620050333333333</v>
       </c>
       <c r="N4">
-        <v>4.31049870437749</v>
+        <v>13.860151</v>
       </c>
       <c r="O4">
-        <v>0.1092520413738644</v>
+        <v>0.09671959797185539</v>
       </c>
       <c r="P4">
-        <v>0.1092520413738644</v>
+        <v>0.09671959797185539</v>
       </c>
       <c r="Q4">
-        <v>4.996718801101966</v>
+        <v>5.729689402342999</v>
       </c>
       <c r="R4">
-        <v>4.996718801101966</v>
+        <v>51.56720462108699</v>
       </c>
       <c r="S4">
-        <v>0.1092520413738644</v>
+        <v>0.09671959797185539</v>
       </c>
       <c r="T4">
-        <v>0.1092520413738644</v>
+        <v>0.09671959797185539</v>
       </c>
     </row>
   </sheetData>
